--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H2">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.6320075</v>
+        <v>30.801072</v>
       </c>
       <c r="N2">
-        <v>67.264015</v>
+        <v>61.602144</v>
       </c>
       <c r="O2">
-        <v>0.3908110491225105</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P2">
-        <v>0.3281482467916435</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q2">
-        <v>10.02489426757</v>
+        <v>18.033935252784</v>
       </c>
       <c r="R2">
-        <v>40.09957707028</v>
+        <v>72.13574101113599</v>
       </c>
       <c r="S2">
-        <v>0.3908110491225105</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="T2">
-        <v>0.3281482467916435</v>
+        <v>0.485871843331092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H3">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +623,22 @@
         <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1396193194224409</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P3">
-        <v>0.1758490515669409</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q3">
-        <v>3.581446630188001</v>
+        <v>7.034871165860999</v>
       </c>
       <c r="R3">
-        <v>21.488679781128</v>
+        <v>42.209226995166</v>
       </c>
       <c r="S3">
-        <v>0.1396193194224409</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="T3">
-        <v>0.1758490515669409</v>
+        <v>0.2843011610923331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +655,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H4">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.122567</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N4">
-        <v>0.367701</v>
+        <v>0.391675</v>
       </c>
       <c r="O4">
-        <v>0.001424254495001488</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P4">
-        <v>0.001793833426290924</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q4">
-        <v>0.036534281092</v>
+        <v>0.07644151249166665</v>
       </c>
       <c r="R4">
-        <v>0.219205686552</v>
+        <v>0.45864907495</v>
       </c>
       <c r="S4">
-        <v>0.001424254495001488</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="T4">
-        <v>0.001793833426290924</v>
+        <v>0.003089240761436898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +717,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H5">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,152 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.558276</v>
+        <v>14.373679</v>
       </c>
       <c r="N5">
-        <v>39.116552</v>
+        <v>28.747358</v>
       </c>
       <c r="O5">
-        <v>0.2272713088146052</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P5">
-        <v>0.1908305348607893</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q5">
-        <v>5.829852676976</v>
+        <v>8.415745933463</v>
       </c>
       <c r="R5">
-        <v>23.319410707904</v>
+        <v>33.662983733852</v>
       </c>
       <c r="S5">
-        <v>0.2272713088146052</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="T5">
-        <v>0.1908305348607893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.298076</v>
-      </c>
-      <c r="H6">
-        <v>0.596152</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>20.59650833333333</v>
-      </c>
-      <c r="N6">
-        <v>61.789525</v>
-      </c>
-      <c r="O6">
-        <v>0.2393357883858265</v>
-      </c>
-      <c r="P6">
-        <v>0.3014408863169769</v>
-      </c>
-      <c r="Q6">
-        <v>6.139324817966666</v>
-      </c>
-      <c r="R6">
-        <v>36.8359489078</v>
-      </c>
-      <c r="S6">
-        <v>0.2393357883858265</v>
-      </c>
-      <c r="T6">
-        <v>0.3014408863169769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.298076</v>
-      </c>
-      <c r="H7">
-        <v>0.596152</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.1323796666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.397139</v>
-      </c>
-      <c r="O7">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="P7">
-        <v>0.001937447037358482</v>
-      </c>
-      <c r="Q7">
-        <v>0.03945920152133333</v>
-      </c>
-      <c r="R7">
-        <v>0.236755209128</v>
-      </c>
-      <c r="S7">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="T7">
-        <v>0.001937447037358482</v>
+        <v>0.2267377548151379</v>
       </c>
     </row>
   </sheetData>
